--- a/FOREX/data/FOREX_4A.xlsx
+++ b/FOREX/data/FOREX_4A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -314,9 +314,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -806,9 +803,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -896,9 +890,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -1661,9 +1652,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1704,9 +1692,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Uganda</t>
@@ -2382,7 +2367,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -4504,17 +4489,17 @@
       <c r="T37" s="20">
         <v>134.82489212939601</v>
       </c>
-      <c r="U37" s="20" t="s">
-        <v>100</v>
+      <c r="U37" s="20">
+        <v>132.78996554921099</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -4574,10 +4559,10 @@
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -4637,10 +4622,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -4700,10 +4685,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -4763,10 +4748,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -4826,10 +4811,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -4889,10 +4874,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -4952,10 +4937,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -5015,10 +5000,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -5078,10 +5063,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -5141,10 +5126,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -5204,10 +5189,10 @@
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -5267,10 +5252,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -5330,10 +5315,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -5393,10 +5378,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -5456,10 +5441,10 @@
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -5519,10 +5504,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -5582,28 +5567,28 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="19" t="s">
+      <c r="F55" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="H55" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="I55" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="J55" s="20">
         <v>2.73102057747011</v>
@@ -5645,31 +5630,31 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="G56" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="I56" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="J56" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="K56" s="22">
         <v>2.8258444108814</v>
@@ -5708,10 +5693,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -5726,55 +5711,55 @@
         <v>0.65222436332505296</v>
       </c>
       <c r="H57" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="J57" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="K57" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="L57" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="M57" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="N57" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="O57" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="O57" s="20" t="s">
+      <c r="P57" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="Q57" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="R57" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="S57" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="S57" s="20" t="s">
+      <c r="T57" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="T57" s="20" t="s">
+      <c r="U57" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -5834,10 +5819,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -5897,10 +5882,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -5960,10 +5945,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -6023,10 +6008,10 @@
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -6086,10 +6071,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -6149,10 +6134,10 @@
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -6212,10 +6197,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -6275,10 +6260,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -6338,10 +6323,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -6401,10 +6386,10 @@
     <row r="68" ht="14.250000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -6428,46 +6413,46 @@
         <v>18.0138242930526</v>
       </c>
       <c r="K68" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L68" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="M68" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="N68" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="N68" s="22" t="s">
+      <c r="O68" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="P68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="P68" s="22" t="s">
+      <c r="Q68" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="Q68" s="22" t="s">
+      <c r="R68" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="R68" s="22" t="s">
+      <c r="S68" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="S68" s="22" t="s">
+      <c r="T68" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="T68" s="22" t="s">
+      <c r="U68" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -6527,10 +6512,10 @@
     <row r="70" ht="24.000000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -6584,16 +6569,16 @@
         <v>48.6493638294425</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6653,10 +6638,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6698,28 +6683,28 @@
         <v>9.3568489848318706</v>
       </c>
       <c r="Q72" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="R72" s="22" t="s">
+      <c r="S72" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="T72" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="T72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6779,10 +6764,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6842,10 +6827,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6905,10 +6890,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6968,10 +6953,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -7031,10 +7016,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -7088,16 +7073,16 @@
         <v>7.7941524152511104</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7157,10 +7142,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7202,28 +7187,28 @@
         <v>9.3568489848318706</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7283,10 +7268,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7346,10 +7331,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7409,10 +7394,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7466,16 +7451,16 @@
         <v>13323.015418445</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7535,10 +7520,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7598,10 +7583,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7661,10 +7646,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7724,10 +7709,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7787,10 +7772,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7850,10 +7835,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7913,10 +7898,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7976,10 +7961,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8039,10 +8024,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8095,17 +8080,17 @@
       <c r="T94" s="22">
         <v>1660.31342692319</v>
       </c>
-      <c r="U94" s="22" t="s">
-        <v>264</v>
+      <c r="U94" s="22">
+        <v>2065.53733363432</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8165,10 +8150,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8228,10 +8213,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8285,16 +8270,16 @@
         <v>198.35011347039099</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8354,10 +8339,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8417,10 +8402,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8480,10 +8465,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8543,10 +8528,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8606,10 +8591,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8669,10 +8654,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8732,10 +8717,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8795,10 +8780,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8858,10 +8843,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8921,10 +8906,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8977,17 +8962,17 @@
       <c r="T108" s="22">
         <v>12736.4089344439</v>
       </c>
-      <c r="U108" s="22" t="s">
-        <v>294</v>
+      <c r="U108" s="22">
+        <v>13814.7635321376</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -9020,37 +9005,37 @@
         <v>0.80449979024583196</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O109" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="S109" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="T109" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9110,10 +9095,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9173,10 +9158,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9230,16 +9215,16 @@
         <v>266.76160786270799</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9290,19 +9275,19 @@
         <v>1.9319282772681301</v>
       </c>
       <c r="T113" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U113" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9338,34 +9323,34 @@
         <v>3.9507080432419301</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="R114" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="S114" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="T114" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9425,10 +9410,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9482,16 +9467,16 @@
         <v>1044.00214927912</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9551,10 +9536,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9614,10 +9599,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9677,10 +9662,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9695,55 +9680,55 @@
         <v>0.47704788134781101</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="K120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9797,16 +9782,16 @@
         <v>51.800061034187102</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9866,10 +9851,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9929,10 +9914,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9992,10 +9977,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10055,10 +10040,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10118,10 +10103,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10181,10 +10166,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10244,10 +10229,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10307,10 +10292,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10370,10 +10355,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10427,16 +10412,16 @@
         <v>1924.43024606636</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10496,10 +10481,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10559,10 +10544,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10622,10 +10607,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10646,49 +10631,49 @@
         <v>2.7583977026807598</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="M135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="S135" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="T135" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10748,10 +10733,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10811,10 +10796,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10874,10 +10859,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10937,10 +10922,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10994,16 +10979,16 @@
         <v>499.78052383637998</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11063,10 +11048,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11126,10 +11111,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11189,10 +11174,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11252,10 +11237,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11315,10 +11300,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11378,10 +11363,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11441,10 +11426,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11504,10 +11489,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11567,10 +11552,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11630,10 +11615,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11693,10 +11678,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11756,10 +11741,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11819,10 +11804,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11882,10 +11867,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11945,10 +11930,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -12008,10 +11993,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12071,10 +12056,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12128,16 +12113,16 @@
         <v>29.9567609029321</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12197,10 +12182,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12260,10 +12245,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12323,10 +12308,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12386,10 +12371,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12443,16 +12428,16 @@
         <v>13691.9122406192</v>
       </c>
       <c r="U163" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12512,31 +12497,31 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F165" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="G165" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="H165" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="J165" s="20" t="s">
         <v>461</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="J165" s="20" t="s">
-        <v>464</v>
       </c>
       <c r="K165" s="20">
         <v>2.8258444108814</v>
@@ -12575,10 +12560,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12596,52 +12581,52 @@
         <v>33.7537154541969</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="L166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="S166" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12653,58 +12638,58 @@
         <v>281.04912410704497</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="J167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="S167" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12764,25 +12749,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F169" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="G169" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="H169" s="20" t="s">
         <v>501</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>504</v>
       </c>
       <c r="I169" s="20">
         <v>48632.409145655904</v>
@@ -12812,25 +12797,25 @@
         <v>32025.958398418199</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="S169" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="T169" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="U169" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="S169" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="T169" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12890,31 +12875,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F171" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="G171" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="H171" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="H171" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>518</v>
       </c>
       <c r="K171" s="20">
         <v>4.7186076267619903</v>
@@ -12953,10 +12938,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -13010,16 +12995,16 @@
         <v>258.50823456897899</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13079,10 +13064,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13142,10 +13127,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13205,10 +13190,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13262,16 +13247,16 @@
         <v>75.209986212903203</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13325,16 +13310,16 @@
         <v>12.967083319407401</v>
       </c>
       <c r="U177" s="20">
-        <v>25.981135388457499</v>
+        <v>25.9811358039391</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13394,10 +13379,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13457,10 +13442,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13505,25 +13490,25 @@
         <v>683.01769479108998</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="S180" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="T180" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="U180" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="S180" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="T180" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13583,10 +13568,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13646,10 +13631,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13702,17 +13687,17 @@
       <c r="T183" s="20">
         <v>3195.47118876489</v>
       </c>
-      <c r="U183" s="20" t="s">
-        <v>549</v>
+      <c r="U183" s="20">
+        <v>3273.1846849543399</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13772,10 +13757,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13835,10 +13820,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13898,10 +13883,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13955,16 +13940,16 @@
         <v>3.20301413386498</v>
       </c>
       <c r="U187" s="20">
-        <v>3.2238155746006001</v>
+        <v>3.2264542165567902</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -14024,10 +14009,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14087,10 +14072,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14143,17 +14128,17 @@
       <c r="T190" s="22">
         <v>9.7621490566298004</v>
       </c>
-      <c r="U190" s="22" t="s">
-        <v>564</v>
+      <c r="U190" s="22">
+        <v>12.6074808351195</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14213,10 +14198,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14276,10 +14261,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14339,10 +14324,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14402,10 +14387,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14465,10 +14450,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14528,37 +14513,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="G197" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="H197" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="I197" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="J197" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>581</v>
-      </c>
-      <c r="H197" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="J197" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>586</v>
       </c>
       <c r="M197" s="20">
         <v>3183.68778132735</v>
@@ -14591,10 +14576,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14648,16 +14633,16 @@
         <v>160.710539595971</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14702,25 +14687,25 @@
         <v>13.8305961715034</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U199" s="20" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14780,10 +14765,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14843,10 +14828,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14906,10 +14891,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14927,37 +14912,37 @@
         <v>10623264842.790701</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="M203" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="N203" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="S203" s="20" t="s">
         <v>609</v>
-      </c>
-      <c r="O203" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="P203" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q203" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="S203" s="20" t="s">
-        <v>614</v>
       </c>
       <c r="T203" s="20">
         <v>71.495175904544496</v>
@@ -14969,10 +14954,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15032,10 +15017,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15095,10 +15080,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_4A.xlsx
+++ b/FOREX/data/FOREX_4A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -686,9 +686,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -1365,9 +1362,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -2367,7 +2361,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -7072,17 +7066,17 @@
       <c r="T78" s="22">
         <v>7.7941524152511104</v>
       </c>
-      <c r="U78" s="22" t="s">
-        <v>224</v>
+      <c r="U78" s="22">
+        <v>8.2702690330212008</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7142,10 +7136,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7187,28 +7181,28 @@
         <v>9.3568489848318706</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7268,10 +7262,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7331,10 +7325,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7394,10 +7388,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>241</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7451,16 +7445,16 @@
         <v>13323.015418445</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7520,10 +7514,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7583,10 +7577,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7646,10 +7640,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>250</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7709,10 +7703,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>252</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7772,10 +7766,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>254</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7835,10 +7829,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7898,10 +7892,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7961,10 +7955,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8024,10 +8018,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8087,10 +8081,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8150,10 +8144,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8213,10 +8207,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8270,16 +8264,16 @@
         <v>198.35011347039099</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8339,10 +8333,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8402,10 +8396,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8465,10 +8459,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8528,10 +8522,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8591,10 +8585,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8654,10 +8648,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8717,10 +8711,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8780,10 +8774,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8843,10 +8837,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8906,10 +8900,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8969,10 +8963,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -9005,37 +8999,37 @@
         <v>0.80449979024583196</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9095,10 +9089,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9158,10 +9152,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9215,16 +9209,16 @@
         <v>266.76160786270799</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9275,19 +9269,19 @@
         <v>1.9319282772681301</v>
       </c>
       <c r="T113" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="U113" s="20" t="s">
         <v>311</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9323,34 +9317,34 @@
         <v>3.9507080432419301</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="P114" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="Q114" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="T114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>320</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9410,10 +9404,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>325</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9467,16 +9461,16 @@
         <v>1044.00214927912</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>328</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9536,10 +9530,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9599,10 +9593,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>332</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9662,10 +9656,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>333</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9680,55 +9674,55 @@
         <v>0.47704788134781101</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="J120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="K120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="T120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>347</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>350</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9782,16 +9776,16 @@
         <v>51.800061034187102</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9851,10 +9845,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9914,10 +9908,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9977,10 +9971,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>358</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>359</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10040,10 +10034,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10103,10 +10097,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10166,10 +10160,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>364</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>365</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10229,10 +10223,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10292,10 +10286,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>369</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10355,10 +10349,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>371</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10412,16 +10406,16 @@
         <v>1924.43024606636</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>374</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10481,10 +10475,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10544,10 +10538,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10607,10 +10601,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10631,49 +10625,49 @@
         <v>2.7583977026807598</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="K135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="L135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="M135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="S135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="T135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>391</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10733,10 +10727,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>396</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10796,10 +10790,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>397</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>398</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10859,10 +10853,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10922,10 +10916,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10979,16 +10973,16 @@
         <v>499.78052383637998</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11048,10 +11042,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>407</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11111,10 +11105,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>409</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11174,10 +11168,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11237,10 +11231,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11300,10 +11294,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11363,10 +11357,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11426,10 +11420,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11489,10 +11483,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11552,10 +11546,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11615,10 +11609,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11678,10 +11672,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>427</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11741,10 +11735,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>428</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>429</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11804,10 +11798,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11867,10 +11861,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>433</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11930,10 +11924,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>434</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>435</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11993,10 +11987,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>436</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>437</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12056,10 +12050,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>439</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12113,16 +12107,16 @@
         <v>29.9567609029321</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12182,10 +12176,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12245,10 +12239,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12308,10 +12302,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12371,10 +12365,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>450</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12427,17 +12421,17 @@
       <c r="T163" s="20">
         <v>13691.9122406192</v>
       </c>
-      <c r="U163" s="20" t="s">
-        <v>451</v>
+      <c r="U163" s="20">
+        <v>14871.0501804673</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12497,31 +12491,31 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="F165" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="G165" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="H165" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="H165" s="20" t="s">
+      <c r="J165" s="20" t="s">
         <v>459</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="J165" s="20" t="s">
-        <v>461</v>
       </c>
       <c r="K165" s="20">
         <v>2.8258444108814</v>
@@ -12560,10 +12554,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12581,52 +12575,52 @@
         <v>33.7537154541969</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="K166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="L166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="S166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12638,58 +12632,58 @@
         <v>281.04912410704497</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="I167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="J167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="S167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12749,25 +12743,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="F169" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="G169" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="H169" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>501</v>
       </c>
       <c r="I169" s="20">
         <v>48632.409145655904</v>
@@ -12797,25 +12791,25 @@
         <v>32025.958398418199</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="S169" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="T169" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="S169" s="20" t="s">
+      <c r="U169" s="20" t="s">
         <v>503</v>
-      </c>
-      <c r="T169" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12875,31 +12869,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="F171" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="G171" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="H171" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="H171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>513</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>515</v>
       </c>
       <c r="K171" s="20">
         <v>4.7186076267619903</v>
@@ -12938,10 +12932,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12995,16 +12989,16 @@
         <v>258.50823456897899</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13064,10 +13058,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13127,10 +13121,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13190,10 +13184,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13247,16 +13241,16 @@
         <v>75.209986212903203</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13316,10 +13310,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13379,10 +13373,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13442,10 +13436,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13490,25 +13484,25 @@
         <v>683.01769479108998</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="S180" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="T180" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="S180" s="22" t="s">
+      <c r="U180" s="22" t="s">
         <v>537</v>
-      </c>
-      <c r="T180" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13568,10 +13562,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13631,10 +13625,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13694,10 +13688,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13757,10 +13751,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13820,10 +13814,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13883,10 +13877,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13946,10 +13940,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -14009,10 +14003,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14072,10 +14066,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14135,10 +14129,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14198,10 +14192,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14261,10 +14255,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14324,10 +14318,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14387,10 +14381,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14450,10 +14444,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14513,37 +14507,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="F197" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="G197" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="J197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>581</v>
       </c>
       <c r="M197" s="20">
         <v>3183.68778132735</v>
@@ -14576,10 +14570,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14633,16 +14627,16 @@
         <v>160.710539595971</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14687,25 +14681,25 @@
         <v>13.8305961715034</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="S199" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="T199" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>588</v>
-      </c>
-      <c r="T199" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14765,10 +14759,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14828,10 +14822,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14891,10 +14885,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14912,37 +14906,37 @@
         <v>10623264842.790701</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="K203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="Q203" s="20" t="s">
+      <c r="S203" s="20" t="s">
         <v>607</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="S203" s="20" t="s">
-        <v>609</v>
       </c>
       <c r="T203" s="20">
         <v>71.495175904544496</v>
@@ -14954,10 +14948,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15017,10 +15011,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15080,10 +15074,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_4A.xlsx
+++ b/FOREX/data/FOREX_4A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -1758,9 +1758,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Venezuela, Rep. Bolivariana de</t>
@@ -5192,13 +5189,13 @@
         <v/>
       </c>
       <c r="E49" s="19">
-        <v>584.05631798636205</v>
+        <v>584.05631798638103</v>
       </c>
       <c r="F49" s="20">
-        <v>576.46156367073104</v>
+        <v>576.46156367073502</v>
       </c>
       <c r="G49" s="20">
-        <v>549.44541912434397</v>
+        <v>549.44541912433999</v>
       </c>
       <c r="H49" s="20">
         <v>528.55197033491595</v>
@@ -5207,40 +5204,40 @@
         <v>543.54314184250597</v>
       </c>
       <c r="J49" s="20">
-        <v>566.18434849651203</v>
+        <v>566.18434849649998</v>
       </c>
       <c r="K49" s="20">
-        <v>557.96450912991702</v>
+        <v>557.96450912991304</v>
       </c>
       <c r="L49" s="20">
         <v>586.509659960985</v>
       </c>
       <c r="M49" s="20">
-        <v>562.92274058661303</v>
+        <v>562.92274058660905</v>
       </c>
       <c r="N49" s="20">
-        <v>562.63622641474501</v>
+        <v>562.63622641475297</v>
       </c>
       <c r="O49" s="20">
         <v>620.37955672417502</v>
       </c>
       <c r="P49" s="20">
-        <v>617.77554806374098</v>
+        <v>617.77554806372495</v>
       </c>
       <c r="Q49" s="20">
-        <v>603.82173066221503</v>
+        <v>603.82173066220901</v>
       </c>
       <c r="R49" s="20">
-        <v>589.81329055830497</v>
+        <v>589.81329055831497</v>
       </c>
       <c r="S49" s="20">
-        <v>607.18997209797806</v>
+        <v>607.18997209798897</v>
       </c>
       <c r="T49" s="20">
-        <v>599.94271295582098</v>
+        <v>599.94271295583098</v>
       </c>
       <c r="U49" s="20">
-        <v>592.53264521309995</v>
+        <v>592.53264521310996</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
@@ -8924,37 +8921,37 @@
         <v>13116.028768092399</v>
       </c>
       <c r="J108" s="22">
-        <v>12599.4340665447</v>
+        <v>12593.457588824</v>
       </c>
       <c r="K108" s="22">
-        <v>12676.9195758772</v>
+        <v>12675.668555710099</v>
       </c>
       <c r="L108" s="22">
-        <v>12265.383921114801</v>
+        <v>12263.5834710173</v>
       </c>
       <c r="M108" s="22">
-        <v>11944.8026257561</v>
+        <v>11903.9121326654</v>
       </c>
       <c r="N108" s="22">
-        <v>12229.048278033701</v>
+        <v>12219.1137214099</v>
       </c>
       <c r="O108" s="22">
-        <v>11399.854554478101</v>
+        <v>11371.4562313487</v>
       </c>
       <c r="P108" s="22">
-        <v>11368.8921129511</v>
+        <v>11292.5808730882</v>
       </c>
       <c r="Q108" s="22">
-        <v>11575.7238783785</v>
+        <v>11431.688886951</v>
       </c>
       <c r="R108" s="22">
-        <v>12007.7015182629</v>
+        <v>11894.8612203797</v>
       </c>
       <c r="S108" s="22">
-        <v>12154.199321369</v>
+        <v>11992.0194467573</v>
       </c>
       <c r="T108" s="22">
-        <v>12736.4089344439</v>
+        <v>12599.7005013404</v>
       </c>
       <c r="U108" s="22">
         <v>13814.7635321376</v>
@@ -14626,17 +14623,17 @@
       <c r="T198" s="22">
         <v>160.710539595971</v>
       </c>
-      <c r="U198" s="22" t="s">
-        <v>582</v>
+      <c r="U198" s="22">
+        <v>155.91601724800699</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>583</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>584</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14681,25 +14678,25 @@
         <v>13.8305961715034</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="S199" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="T199" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="T199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>587</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>589</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>590</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14759,10 +14756,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>592</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14822,10 +14819,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>593</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>594</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14885,10 +14882,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>595</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>596</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14906,37 +14903,37 @@
         <v>10623264842.790701</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="J203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="K203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="Q203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="R203" s="20" t="s">
+      <c r="S203" s="20" t="s">
         <v>606</v>
-      </c>
-      <c r="S203" s="20" t="s">
-        <v>607</v>
       </c>
       <c r="T203" s="20">
         <v>71.495175904544496</v>
@@ -14948,10 +14945,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>608</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>609</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15011,10 +15008,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>610</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>611</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15074,10 +15071,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" s="24" t="s">
         <v>612</v>
-      </c>
-      <c r="C206" s="24" t="s">
-        <v>613</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_4A.xlsx
+++ b/FOREX/data/FOREX_4A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -816,9 +816,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Japan</t>
@@ -8260,17 +8257,17 @@
       <c r="T97" s="20">
         <v>198.35011347039099</v>
       </c>
-      <c r="U97" s="20" t="s">
-        <v>268</v>
+      <c r="U97" s="20">
+        <v>214.80178852965099</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8330,10 +8327,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8393,10 +8390,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8456,10 +8453,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8519,10 +8516,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8582,10 +8579,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8645,10 +8642,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8708,10 +8705,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8771,10 +8768,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8834,10 +8831,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8897,10 +8894,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8960,10 +8957,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8996,37 +8993,37 @@
         <v>0.80449979024583196</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9086,10 +9083,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9149,10 +9146,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9206,16 +9203,16 @@
         <v>266.76160786270799</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9266,19 +9263,19 @@
         <v>1.9319282772681301</v>
       </c>
       <c r="T113" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="U113" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9314,34 +9311,34 @@
         <v>3.9507080432419301</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P114" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="Q114" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="T114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9401,10 +9398,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9458,16 +9455,16 @@
         <v>1044.00214927912</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9527,10 +9524,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>329</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9590,10 +9587,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>331</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9653,10 +9650,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>333</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9671,55 +9668,55 @@
         <v>0.47704788134781101</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="J120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="K120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="T120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9773,16 +9770,16 @@
         <v>51.800061034187102</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>352</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9842,10 +9839,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>354</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9905,10 +9902,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>356</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9968,10 +9965,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10031,10 +10028,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>359</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>360</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10094,10 +10091,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10157,10 +10154,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10220,10 +10217,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10283,10 +10280,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10346,10 +10343,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10403,16 +10400,16 @@
         <v>1924.43024606636</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>372</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10472,10 +10469,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>375</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10535,10 +10532,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>377</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10598,10 +10595,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10622,49 +10619,49 @@
         <v>2.7583977026807598</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="K135" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="L135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="M135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="S135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="T135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>393</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10724,10 +10721,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10787,10 +10784,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10850,10 +10847,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10913,10 +10910,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>401</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10970,16 +10967,16 @@
         <v>499.78052383637998</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11039,10 +11036,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11102,10 +11099,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11165,10 +11162,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11228,10 +11225,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11291,10 +11288,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11354,10 +11351,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11417,10 +11414,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11480,10 +11477,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11543,10 +11540,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>421</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>422</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11606,10 +11603,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11669,10 +11666,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11732,10 +11729,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11795,10 +11792,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>430</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11858,10 +11855,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11921,10 +11918,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11984,10 +11981,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12047,10 +12044,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12104,16 +12101,16 @@
         <v>29.9567609029321</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>440</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>441</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12173,10 +12170,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>443</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12236,10 +12233,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>445</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12299,10 +12296,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12362,10 +12359,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12425,10 +12422,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12488,31 +12485,31 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="F165" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="G165" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="H165" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="H165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="J165" s="20" t="s">
         <v>458</v>
-      </c>
-      <c r="J165" s="20" t="s">
-        <v>459</v>
       </c>
       <c r="K165" s="20">
         <v>2.8258444108814</v>
@@ -12551,10 +12548,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>460</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>461</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12572,52 +12569,52 @@
         <v>33.7537154541969</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="J166" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="K166" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="L166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="S166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="T166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>473</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>476</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12629,58 +12626,58 @@
         <v>281.04912410704497</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H167" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="I167" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="J167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="S167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="T167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>493</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12740,25 +12737,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="F169" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="G169" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="H169" s="20" t="s">
         <v>498</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>499</v>
       </c>
       <c r="I169" s="20">
         <v>48632.409145655904</v>
@@ -12788,25 +12785,25 @@
         <v>32025.958398418199</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="S169" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="S169" s="20" t="s">
+      <c r="T169" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="T169" s="20" t="s">
+      <c r="U169" s="20" t="s">
         <v>502</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>504</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>505</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12866,31 +12863,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="F171" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="G171" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="H171" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="H171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="I171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>513</v>
       </c>
       <c r="K171" s="20">
         <v>4.7186076267619903</v>
@@ -12929,10 +12926,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12986,16 +12983,16 @@
         <v>258.50823456897899</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" s="17" t="s">
         <v>517</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>518</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13055,10 +13052,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>519</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>520</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13118,10 +13115,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>522</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13181,10 +13178,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>524</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13238,16 +13235,16 @@
         <v>75.209986212903203</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>527</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13307,10 +13304,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" s="17" t="s">
         <v>528</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>529</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13370,10 +13367,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>530</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>531</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13433,10 +13430,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>532</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>533</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13481,25 +13478,25 @@
         <v>683.01769479108998</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="S180" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="S180" s="22" t="s">
+      <c r="T180" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="T180" s="22" t="s">
+      <c r="U180" s="22" t="s">
         <v>536</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>538</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>539</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13559,10 +13556,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="C182" s="17" t="s">
         <v>540</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>541</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13622,10 +13619,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C183" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>543</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13685,10 +13682,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>544</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>545</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13748,10 +13745,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C185" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>547</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13811,10 +13808,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C186" s="17" t="s">
         <v>548</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13874,10 +13871,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C187" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>551</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13937,10 +13934,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>552</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>553</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -14000,10 +13997,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C189" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14063,10 +14060,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" s="17" t="s">
         <v>556</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>557</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14126,10 +14123,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C191" s="17" t="s">
         <v>558</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>559</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14189,10 +14186,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>560</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>561</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14252,10 +14249,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>562</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>563</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14315,10 +14312,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C194" s="17" t="s">
         <v>564</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>565</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14378,10 +14375,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>566</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>567</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14441,10 +14438,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>568</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>569</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14504,37 +14501,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="F197" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="G197" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="J197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="K197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>578</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>579</v>
       </c>
       <c r="M197" s="20">
         <v>3183.68778132735</v>
@@ -14567,10 +14564,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C198" s="17" t="s">
         <v>580</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>581</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14630,10 +14627,10 @@
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>582</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>583</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14678,25 +14675,25 @@
         <v>13.8305961715034</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="S199" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="T199" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="T199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>586</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>588</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>589</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14756,10 +14753,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>590</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14819,10 +14816,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14882,10 +14879,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>594</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>595</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14903,37 +14900,37 @@
         <v>10623264842.790701</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="J203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="K203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="Q203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="R203" s="20" t="s">
+      <c r="S203" s="20" t="s">
         <v>605</v>
-      </c>
-      <c r="S203" s="20" t="s">
-        <v>606</v>
       </c>
       <c r="T203" s="20">
         <v>71.495175904544496</v>
@@ -14945,10 +14942,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>607</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>608</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15008,10 +15005,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>609</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>610</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15071,10 +15068,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="C206" s="24" t="s">
         <v>611</v>
-      </c>
-      <c r="C206" s="24" t="s">
-        <v>612</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_4A.xlsx
+++ b/FOREX/data/FOREX_4A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -620,9 +620,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -941,12 +938,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1059,9 +1050,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Mauritius</t>
@@ -3737,13 +3725,13 @@
         <v/>
       </c>
       <c r="E26" s="21">
-        <v>778.74175731515004</v>
+        <v>778.74175731517505</v>
       </c>
       <c r="F26" s="22">
-        <v>768.61541822764104</v>
+        <v>768.61541822764696</v>
       </c>
       <c r="G26" s="22">
-        <v>732.593892165792</v>
+        <v>732.593892165787</v>
       </c>
       <c r="H26" s="22">
         <v>704.73596044655403</v>
@@ -3752,40 +3740,40 @@
         <v>724.72418912334103</v>
       </c>
       <c r="J26" s="22">
-        <v>754.91246466201596</v>
+        <v>754.91246466199902</v>
       </c>
       <c r="K26" s="22">
-        <v>743.95267883988902</v>
+        <v>743.95267883988402</v>
       </c>
       <c r="L26" s="22">
         <v>782.01287994797997</v>
       </c>
       <c r="M26" s="22">
-        <v>750.56365411548495</v>
+        <v>750.56365411547904</v>
       </c>
       <c r="N26" s="22">
-        <v>750.18163521965903</v>
+        <v>750.18163521967097</v>
       </c>
       <c r="O26" s="22">
         <v>827.17274229889995</v>
       </c>
       <c r="P26" s="22">
-        <v>823.70073075165499</v>
+        <v>823.70073075163305</v>
       </c>
       <c r="Q26" s="22">
-        <v>805.09564088295303</v>
+        <v>805.09564088294599</v>
       </c>
       <c r="R26" s="22">
-        <v>786.41772074440598</v>
+        <v>786.41772074441997</v>
       </c>
       <c r="S26" s="22">
-        <v>809.58662946396998</v>
+        <v>809.58662946398499</v>
       </c>
       <c r="T26" s="22">
-        <v>799.92361727442801</v>
+        <v>799.92361727444199</v>
       </c>
       <c r="U26" s="22">
-        <v>790.03611999211898</v>
+        <v>790.043526950814</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
@@ -6556,17 +6544,17 @@
       <c r="T70" s="22">
         <v>48.6493638294425</v>
       </c>
-      <c r="U70" s="22" t="s">
-        <v>202</v>
+      <c r="U70" s="22">
+        <v>62.299139212724903</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6626,10 +6614,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6671,28 +6659,28 @@
         <v>9.3568489848318706</v>
       </c>
       <c r="Q72" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="22" t="s">
+      <c r="S72" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="T72" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="T72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6752,10 +6740,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6815,10 +6803,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6878,10 +6866,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6941,10 +6929,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -7004,10 +6992,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -7067,10 +7055,10 @@
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7130,10 +7118,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7175,28 +7163,28 @@
         <v>9.3568489848318706</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7256,10 +7244,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7319,10 +7307,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7382,10 +7370,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7439,16 +7427,16 @@
         <v>13323.015418445</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7508,10 +7496,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7571,10 +7559,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7634,10 +7622,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7697,10 +7685,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7760,10 +7748,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7823,10 +7811,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7886,10 +7874,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7949,10 +7937,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8012,10 +8000,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8075,10 +8063,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8138,10 +8126,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8201,10 +8189,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8264,10 +8252,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8327,10 +8315,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8390,10 +8378,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8453,10 +8441,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8516,10 +8504,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8579,10 +8567,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8642,10 +8630,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8705,10 +8693,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8768,10 +8756,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8831,10 +8819,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8894,10 +8882,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8957,10 +8945,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8993,37 +8981,37 @@
         <v>0.80449979024583196</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9083,10 +9071,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9146,10 +9134,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9203,16 +9191,16 @@
         <v>266.76160786270799</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9262,20 +9250,20 @@
       <c r="S113" s="20">
         <v>1.9319282772681301</v>
       </c>
-      <c r="T113" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>310</v>
+      <c r="T113" s="20">
+        <v>1.9342465940245399</v>
+      </c>
+      <c r="U113" s="20">
+        <v>6.43083681199455</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9311,34 +9299,34 @@
         <v>3.9507080432419301</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="R114" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="S114" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="T114" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9398,10 +9386,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9455,16 +9443,16 @@
         <v>1044.00214927912</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9524,10 +9512,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9587,10 +9575,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9650,10 +9638,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9668,55 +9656,55 @@
         <v>0.47704788134781101</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="K120" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>343</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9769,17 +9757,17 @@
       <c r="T121" s="20">
         <v>51.800061034187102</v>
       </c>
-      <c r="U121" s="20" t="s">
-        <v>349</v>
+      <c r="U121" s="20">
+        <v>51.372525086412999</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9839,10 +9827,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9902,10 +9890,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9965,10 +9953,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10028,10 +10016,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10091,10 +10079,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10154,10 +10142,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10217,10 +10205,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10280,10 +10268,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10343,10 +10331,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10400,16 +10388,16 @@
         <v>1924.43024606636</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10469,10 +10457,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10532,10 +10520,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10595,10 +10583,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10619,49 +10607,49 @@
         <v>2.7583977026807598</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="M135" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="N135" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>386</v>
-      </c>
-      <c r="R135" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="S135" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="T135" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10721,10 +10709,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10784,10 +10772,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10847,10 +10835,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10910,10 +10898,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10967,16 +10955,16 @@
         <v>499.78052383637998</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11036,10 +11024,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11099,10 +11087,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11162,10 +11150,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11225,10 +11213,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11288,10 +11276,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11351,10 +11339,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11414,49 +11402,49 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
       </c>
       <c r="E148" s="21">
-        <v>9124.5891160551892</v>
+        <v>9124.6236568784498</v>
       </c>
       <c r="F148" s="22">
-        <v>8290.5965530468893</v>
+        <v>8291.1387955229002</v>
       </c>
       <c r="G148" s="22">
-        <v>7703.0380845237696</v>
+        <v>7703.0458755342897</v>
       </c>
       <c r="H148" s="22">
-        <v>6894.5475708173599</v>
+        <v>6894.4686568647903</v>
       </c>
       <c r="I148" s="22">
-        <v>7653.6787914059496</v>
+        <v>7651.6899252757003</v>
       </c>
       <c r="J148" s="22">
-        <v>7259.9835743985604</v>
+        <v>7224.9403661941697</v>
       </c>
       <c r="K148" s="22">
-        <v>6620.6887213687696</v>
+        <v>6616.9218903575402</v>
       </c>
       <c r="L148" s="22">
-        <v>6772.60128270736</v>
+        <v>6777.5918484993699</v>
       </c>
       <c r="M148" s="22">
-        <v>6540.4743587858502</v>
+        <v>6565.9920238082996</v>
       </c>
       <c r="N148" s="22">
-        <v>6779.5438238223696</v>
+        <v>6779.5535146969196</v>
       </c>
       <c r="O148" s="22">
-        <v>7282.27914465305</v>
+        <v>7282.2640228705504</v>
       </c>
       <c r="P148" s="22">
-        <v>7881.8501929672702</v>
+        <v>7881.8175749345501</v>
       </c>
       <c r="Q148" s="22">
         <v>7790.7969407742903</v>
@@ -11477,10 +11465,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11540,10 +11528,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11603,10 +11591,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11666,10 +11654,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11729,10 +11717,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11792,10 +11780,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11855,10 +11843,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11918,10 +11906,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11981,10 +11969,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12044,10 +12032,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12101,16 +12089,16 @@
         <v>29.9567609029321</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12170,10 +12158,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12233,10 +12221,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12296,10 +12284,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12359,10 +12347,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12416,16 +12404,16 @@
         <v>13691.9122406192</v>
       </c>
       <c r="U163" s="20">
-        <v>14871.0501804673</v>
+        <v>14871.0501648477</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12485,31 +12473,31 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G165" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="H165" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="I165" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="J165" s="20" t="s">
         <v>454</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="J165" s="20" t="s">
-        <v>458</v>
       </c>
       <c r="K165" s="20">
         <v>2.8258444108814</v>
@@ -12548,10 +12536,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12569,52 +12557,52 @@
         <v>33.7537154541969</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="L166" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="M166" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="R166" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="S166" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12626,58 +12614,58 @@
         <v>281.04912410704497</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="K167" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="R167" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="S167" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12737,25 +12725,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="G169" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="H169" s="20" t="s">
         <v>494</v>
-      </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="I169" s="20">
         <v>48632.409145655904</v>
@@ -12785,25 +12773,25 @@
         <v>32025.958398418199</v>
       </c>
       <c r="R169" s="20" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="T169" s="20" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12863,31 +12851,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="F171" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="G171" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="H171" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="I171" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>508</v>
-      </c>
-      <c r="G171" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="H171" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>512</v>
       </c>
       <c r="K171" s="20">
         <v>4.7186076267619903</v>
@@ -12926,10 +12914,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12983,16 +12971,16 @@
         <v>258.50823456897899</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13052,10 +13040,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13115,10 +13103,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13178,10 +13166,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13235,16 +13223,16 @@
         <v>75.209986212903203</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13304,10 +13292,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13367,10 +13355,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13430,10 +13418,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13478,25 +13466,25 @@
         <v>683.01769479108998</v>
       </c>
       <c r="R180" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="T180" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="U180" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13556,10 +13544,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13619,10 +13607,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13682,10 +13670,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13745,10 +13733,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13808,10 +13796,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13871,10 +13859,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13934,10 +13922,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -13997,10 +13985,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14060,10 +14048,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14123,10 +14111,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14186,10 +14174,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14249,10 +14237,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14312,10 +14300,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14375,10 +14363,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14438,10 +14426,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14501,37 +14489,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="G197" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="H197" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="I197" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="J197" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>578</v>
       </c>
       <c r="M197" s="20">
         <v>3183.68778132735</v>
@@ -14564,10 +14552,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14627,10 +14615,10 @@
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14675,25 +14663,25 @@
         <v>13.8305961715034</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="U199" s="20" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14753,10 +14741,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14816,10 +14804,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14879,10 +14867,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14900,37 +14888,37 @@
         <v>10623264842.790701</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="M203" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="S203" s="20" t="s">
         <v>601</v>
-      </c>
-      <c r="P203" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q203" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="S203" s="20" t="s">
-        <v>605</v>
       </c>
       <c r="T203" s="20">
         <v>71.495175904544496</v>
@@ -14942,10 +14930,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15005,10 +14993,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15068,10 +15056,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>
